--- a/Jagdish_SAP_HANA_TP.xlsx
+++ b/Jagdish_SAP_HANA_TP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8157153-B3BE-497C-82D7-32BB3004096A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604B18A-4671-4938-9673-09AC2292AF36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -750,7 +750,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>22</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>31</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>37</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>40</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>43</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>46</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>50</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>53</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>56</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>59</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -1359,6 +1359,9 @@
       </c>
       <c r="H48" t="s">
         <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.25">
